--- a/TemplateHoras.xlsx
+++ b/TemplateHoras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.ponte\Documents\ProjetoGestaoHoras\ProjetoGestaoHoras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.ponte\Documents\ProjetoGestaoHoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE018EA9-B6EB-4224-A798-86EF84522CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A9F0B7-48D6-47D8-BB5C-55E0783620C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D23AFD0-5635-4C53-BE4A-6C961E8978E1}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D23AFD0-5635-4C53-BE4A-6C961E8978E1}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN" sheetId="11" r:id="rId1"/>
@@ -686,31 +686,31 @@
       <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="24" customWidth="1"/>
-    <col min="8" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" style="24" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.453125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="8.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" style="1"/>
-    <col min="21" max="16384" width="11.54296875" style="2"/>
+    <col min="15" max="15" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="1"/>
+    <col min="21" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:104" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="G1" s="28"/>
       <c r="H1" s="29">
         <f ca="1">+NOW()</f>
-        <v>45181.515242592592</v>
+        <v>45299.506137962962</v>
       </c>
       <c r="I1" s="29"/>
       <c r="J1" s="14"/>
@@ -738,7 +738,7 @@
       <c r="S1" s="14"/>
       <c r="T1" s="27"/>
     </row>
-    <row r="2" spans="1:104" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:104" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15">
         <v>22</v>
       </c>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:104" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:104" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
@@ -903,7 +903,7 @@
       <c r="CY3" s="3"/>
       <c r="CZ3" s="3"/>
     </row>
-    <row r="4" spans="1:104" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:104" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="CY4" s="3"/>
       <c r="CZ4" s="3"/>
     </row>
-    <row r="5" spans="1:104" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:104" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -1087,7 +1087,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -1119,7 +1119,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -1151,7 +1151,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -1183,7 +1183,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -1215,7 +1215,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -1247,7 +1247,7 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:104" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -1255,7 +1255,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1264,7 +1264,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1273,7 +1273,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1282,7 +1282,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1295,7 +1295,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:104" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1313,7 +1313,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1331,7 +1331,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1345,7 +1345,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1360,7 +1360,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1375,7 +1375,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1385,7 +1385,7 @@
       <c r="G21" s="23"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1395,7 +1395,7 @@
       <c r="G22" s="23"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1405,7 +1405,7 @@
       <c r="G23" s="23"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1415,7 +1415,7 @@
       <c r="G24" s="23"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1425,7 +1425,7 @@
       <c r="G25" s="23"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1440,7 +1440,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1455,7 +1455,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1470,7 +1470,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1485,7 +1485,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1494,7 +1494,7 @@
       <c r="F30" s="21"/>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1503,7 +1503,7 @@
       <c r="F31" s="21"/>
       <c r="G31" s="23"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1512,7 +1512,7 @@
       <c r="F32" s="21"/>
       <c r="G32" s="23"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1521,7 +1521,7 @@
       <c r="F33" s="21"/>
       <c r="G33" s="23"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -1530,7 +1530,7 @@
       <c r="F34" s="21"/>
       <c r="G34" s="23"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -1539,7 +1539,7 @@
       <c r="F35" s="21"/>
       <c r="G35" s="23"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -1548,7 +1548,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="23"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -1557,7 +1557,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="23"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1566,7 +1566,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="23"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1575,7 +1575,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -1584,7 +1584,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="23"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -1592,7 +1592,7 @@
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -1601,7 +1601,7 @@
       <c r="F42" s="21"/>
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -1609,7 +1609,7 @@
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -1617,7 +1617,7 @@
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -1626,7 +1626,7 @@
       <c r="F45" s="21"/>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -1635,7 +1635,7 @@
       <c r="F46" s="21"/>
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -1644,7 +1644,7 @@
       <c r="F47" s="21"/>
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -1653,7 +1653,7 @@
       <c r="F48" s="21"/>
       <c r="G48" s="23"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -1662,7 +1662,7 @@
       <c r="F49" s="21"/>
       <c r="G49" s="23"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -1671,7 +1671,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="23"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -1680,7 +1680,7 @@
       <c r="F51" s="21"/>
       <c r="G51" s="23"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -1689,7 +1689,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="23"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -1698,7 +1698,7 @@
       <c r="F53" s="21"/>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -1707,7 +1707,7 @@
       <c r="F54" s="21"/>
       <c r="G54" s="23"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -1716,7 +1716,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="23"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -1725,7 +1725,7 @@
       <c r="F56" s="21"/>
       <c r="G56" s="23"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -1734,7 +1734,7 @@
       <c r="F57" s="21"/>
       <c r="G57" s="23"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -1743,7 +1743,7 @@
       <c r="F58" s="21"/>
       <c r="G58" s="23"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -1752,7 +1752,7 @@
       <c r="F59" s="21"/>
       <c r="G59" s="23"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -1761,7 +1761,7 @@
       <c r="F60" s="21"/>
       <c r="G60" s="23"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -1770,7 +1770,7 @@
       <c r="F61" s="21"/>
       <c r="G61" s="23"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -1779,7 +1779,7 @@
       <c r="F62" s="21"/>
       <c r="G62" s="23"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -1788,7 +1788,7 @@
       <c r="F63" s="21"/>
       <c r="G63" s="23"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -1797,7 +1797,7 @@
       <c r="F64" s="21"/>
       <c r="G64" s="23"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -1806,7 +1806,7 @@
       <c r="F65" s="21"/>
       <c r="G65" s="23"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -1815,7 +1815,7 @@
       <c r="F66" s="21"/>
       <c r="G66" s="23"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -1824,7 +1824,7 @@
       <c r="F67" s="21"/>
       <c r="G67" s="23"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -1833,7 +1833,7 @@
       <c r="F68" s="21"/>
       <c r="G68" s="23"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -1842,7 +1842,7 @@
       <c r="F69" s="21"/>
       <c r="G69" s="23"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -1851,7 +1851,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="23"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -1860,7 +1860,7 @@
       <c r="F71" s="21"/>
       <c r="G71" s="23"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -1869,7 +1869,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="23"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -1878,7 +1878,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="23"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -1887,7 +1887,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="23"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -1896,7 +1896,7 @@
       <c r="F75" s="21"/>
       <c r="G75" s="23"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -1905,7 +1905,7 @@
       <c r="F76" s="21"/>
       <c r="G76" s="23"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -1914,7 +1914,7 @@
       <c r="F77" s="21"/>
       <c r="G77" s="23"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -1923,7 +1923,7 @@
       <c r="F78" s="21"/>
       <c r="G78" s="23"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -1932,7 +1932,7 @@
       <c r="F79" s="21"/>
       <c r="G79" s="23"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -1941,7 +1941,7 @@
       <c r="F80" s="21"/>
       <c r="G80" s="23"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -1950,7 +1950,7 @@
       <c r="F81" s="21"/>
       <c r="G81" s="23"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -1959,7 +1959,7 @@
       <c r="F82" s="21"/>
       <c r="G82" s="23"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -1968,7 +1968,7 @@
       <c r="F83" s="21"/>
       <c r="G83" s="23"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -1977,7 +1977,7 @@
       <c r="F84" s="21"/>
       <c r="G84" s="23"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -1986,7 +1986,7 @@
       <c r="F85" s="21"/>
       <c r="G85" s="23"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -1995,7 +1995,7 @@
       <c r="F86" s="21"/>
       <c r="G86" s="23"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -2004,7 +2004,7 @@
       <c r="F87" s="21"/>
       <c r="G87" s="23"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -2013,7 +2013,7 @@
       <c r="F88" s="21"/>
       <c r="G88" s="23"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -2022,7 +2022,7 @@
       <c r="F89" s="21"/>
       <c r="G89" s="23"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -2031,7 +2031,7 @@
       <c r="F90" s="21"/>
       <c r="G90" s="23"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -2040,7 +2040,7 @@
       <c r="F91" s="21"/>
       <c r="G91" s="23"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -2049,7 +2049,7 @@
       <c r="F92" s="21"/>
       <c r="G92" s="23"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -2058,7 +2058,7 @@
       <c r="F93" s="21"/>
       <c r="G93" s="23"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -2067,7 +2067,7 @@
       <c r="F94" s="21"/>
       <c r="G94" s="23"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -2076,7 +2076,7 @@
       <c r="F95" s="21"/>
       <c r="G95" s="23"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -2085,7 +2085,7 @@
       <c r="F96" s="21"/>
       <c r="G96" s="23"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -2094,7 +2094,7 @@
       <c r="F97" s="21"/>
       <c r="G97" s="23"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -2103,7 +2103,7 @@
       <c r="F98" s="21"/>
       <c r="G98" s="23"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -2112,7 +2112,7 @@
       <c r="F99" s="21"/>
       <c r="G99" s="23"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -2121,7 +2121,7 @@
       <c r="F100" s="21"/>
       <c r="G100" s="23"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -2130,7 +2130,7 @@
       <c r="F101" s="21"/>
       <c r="G101" s="23"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -2139,7 +2139,7 @@
       <c r="F102" s="21"/>
       <c r="G102" s="23"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -2148,7 +2148,7 @@
       <c r="F103" s="21"/>
       <c r="G103" s="23"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="20"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -2157,7 +2157,7 @@
       <c r="F104" s="21"/>
       <c r="G104" s="23"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="20"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -2166,7 +2166,7 @@
       <c r="F105" s="21"/>
       <c r="G105" s="23"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -2175,7 +2175,7 @@
       <c r="F106" s="21"/>
       <c r="G106" s="23"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="20"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -2184,7 +2184,7 @@
       <c r="F107" s="21"/>
       <c r="G107" s="23"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="20"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -2193,7 +2193,7 @@
       <c r="F108" s="21"/>
       <c r="G108" s="23"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="20"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -2202,7 +2202,7 @@
       <c r="F109" s="21"/>
       <c r="G109" s="23"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="20"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -2211,7 +2211,7 @@
       <c r="F110" s="21"/>
       <c r="G110" s="23"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="20"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -2220,7 +2220,7 @@
       <c r="F111" s="21"/>
       <c r="G111" s="23"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="20"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -2229,7 +2229,7 @@
       <c r="F112" s="21"/>
       <c r="G112" s="23"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="20"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -2238,7 +2238,7 @@
       <c r="F113" s="21"/>
       <c r="G113" s="23"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -2247,7 +2247,7 @@
       <c r="F114" s="21"/>
       <c r="G114" s="23"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="20"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -2256,7 +2256,7 @@
       <c r="F115" s="21"/>
       <c r="G115" s="23"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="20"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -2265,7 +2265,7 @@
       <c r="F116" s="21"/>
       <c r="G116" s="23"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="20"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -2274,7 +2274,7 @@
       <c r="F117" s="21"/>
       <c r="G117" s="23"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -2283,7 +2283,7 @@
       <c r="F118" s="21"/>
       <c r="G118" s="23"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="20"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -2292,7 +2292,7 @@
       <c r="F119" s="21"/>
       <c r="G119" s="23"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="20"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -2301,7 +2301,7 @@
       <c r="F120" s="21"/>
       <c r="G120" s="23"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="20"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -2310,7 +2310,7 @@
       <c r="F121" s="21"/>
       <c r="G121" s="23"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="20"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -2319,7 +2319,7 @@
       <c r="F122" s="21"/>
       <c r="G122" s="23"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="20"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -2328,7 +2328,7 @@
       <c r="F123" s="21"/>
       <c r="G123" s="23"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="20"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -2337,7 +2337,7 @@
       <c r="F124" s="21"/>
       <c r="G124" s="23"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="20"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -2346,7 +2346,7 @@
       <c r="F125" s="21"/>
       <c r="G125" s="23"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="20"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -2355,7 +2355,7 @@
       <c r="F126" s="21"/>
       <c r="G126" s="23"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="20"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -2364,7 +2364,7 @@
       <c r="F127" s="21"/>
       <c r="G127" s="23"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="20"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -2373,7 +2373,7 @@
       <c r="F128" s="21"/>
       <c r="G128" s="23"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="20"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -2382,7 +2382,7 @@
       <c r="F129" s="21"/>
       <c r="G129" s="23"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="20"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -2391,7 +2391,7 @@
       <c r="F130" s="21"/>
       <c r="G130" s="23"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="20"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -2400,7 +2400,7 @@
       <c r="F131" s="21"/>
       <c r="G131" s="23"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="20"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -2409,7 +2409,7 @@
       <c r="F132" s="21"/>
       <c r="G132" s="23"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="20"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -2418,7 +2418,7 @@
       <c r="F133" s="21"/>
       <c r="G133" s="23"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -2427,7 +2427,7 @@
       <c r="F134" s="21"/>
       <c r="G134" s="23"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="20"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -2436,7 +2436,7 @@
       <c r="F135" s="21"/>
       <c r="G135" s="23"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="20"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -2445,7 +2445,7 @@
       <c r="F136" s="21"/>
       <c r="G136" s="23"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="20"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -2454,7 +2454,7 @@
       <c r="F137" s="21"/>
       <c r="G137" s="23"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="20"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -2463,7 +2463,7 @@
       <c r="F138" s="21"/>
       <c r="G138" s="23"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="20"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -2472,7 +2472,7 @@
       <c r="F139" s="21"/>
       <c r="G139" s="23"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -2481,7 +2481,7 @@
       <c r="F140" s="21"/>
       <c r="G140" s="23"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="20"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -2490,7 +2490,7 @@
       <c r="F141" s="21"/>
       <c r="G141" s="23"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="20"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -2499,7 +2499,7 @@
       <c r="F142" s="21"/>
       <c r="G142" s="23"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="20"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -2508,7 +2508,7 @@
       <c r="F143" s="21"/>
       <c r="G143" s="23"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="20"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -2517,7 +2517,7 @@
       <c r="F144" s="21"/>
       <c r="G144" s="23"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="20"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -2526,7 +2526,7 @@
       <c r="F145" s="21"/>
       <c r="G145" s="23"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -2535,7 +2535,7 @@
       <c r="F146" s="21"/>
       <c r="G146" s="23"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="20"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -2544,7 +2544,7 @@
       <c r="F147" s="21"/>
       <c r="G147" s="23"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="20"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -2553,7 +2553,7 @@
       <c r="F148" s="21"/>
       <c r="G148" s="23"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -2562,7 +2562,7 @@
       <c r="F149" s="21"/>
       <c r="G149" s="23"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="20"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -2571,7 +2571,7 @@
       <c r="F150" s="21"/>
       <c r="G150" s="23"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -2580,7 +2580,7 @@
       <c r="F151" s="21"/>
       <c r="G151" s="23"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="B152"/>
       <c r="C152"/>
@@ -2589,7 +2589,7 @@
       <c r="F152" s="21"/>
       <c r="G152" s="23"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
       <c r="B153"/>
       <c r="C153"/>
@@ -2598,7 +2598,7 @@
       <c r="F153" s="21"/>
       <c r="G153" s="23"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="B154"/>
       <c r="C154"/>
@@ -2607,7 +2607,7 @@
       <c r="F154" s="21"/>
       <c r="G154" s="23"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -2616,7 +2616,7 @@
       <c r="F155" s="21"/>
       <c r="G155" s="23"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="B156"/>
       <c r="C156"/>
@@ -2625,7 +2625,7 @@
       <c r="F156" s="21"/>
       <c r="G156" s="23"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -2634,7 +2634,7 @@
       <c r="F157" s="21"/>
       <c r="G157" s="23"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -2643,7 +2643,7 @@
       <c r="F158" s="21"/>
       <c r="G158" s="23"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
       <c r="B159"/>
       <c r="C159"/>
@@ -2652,7 +2652,7 @@
       <c r="F159" s="21"/>
       <c r="G159" s="23"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -2661,7 +2661,7 @@
       <c r="F160" s="21"/>
       <c r="G160" s="23"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="20"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -2670,7 +2670,7 @@
       <c r="F161" s="21"/>
       <c r="G161" s="23"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
       <c r="B162"/>
       <c r="C162"/>
@@ -2679,7 +2679,7 @@
       <c r="F162" s="21"/>
       <c r="G162" s="23"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -2688,7 +2688,7 @@
       <c r="F163" s="21"/>
       <c r="G163" s="23"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -2697,7 +2697,7 @@
       <c r="F164" s="21"/>
       <c r="G164" s="23"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -2706,7 +2706,7 @@
       <c r="F165" s="21"/>
       <c r="G165" s="23"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -2715,7 +2715,7 @@
       <c r="F166" s="21"/>
       <c r="G166" s="23"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="B167"/>
       <c r="C167"/>
@@ -2724,7 +2724,7 @@
       <c r="F167" s="21"/>
       <c r="G167" s="23"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -2733,7 +2733,7 @@
       <c r="F168" s="21"/>
       <c r="G168" s="23"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -2742,7 +2742,7 @@
       <c r="F169" s="21"/>
       <c r="G169" s="23"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -2752,7 +2752,7 @@
       <c r="G170" s="23"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="B171"/>
       <c r="C171"/>
@@ -2762,7 +2762,7 @@
       <c r="G171" s="23"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -2772,7 +2772,7 @@
       <c r="G172" s="23"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="B173"/>
       <c r="C173"/>
@@ -2782,7 +2782,7 @@
       <c r="G173" s="23"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -2792,7 +2792,7 @@
       <c r="G174" s="23"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="B175"/>
       <c r="C175"/>
@@ -2802,7 +2802,7 @@
       <c r="G175" s="23"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
       <c r="B176"/>
       <c r="C176"/>
@@ -2812,7 +2812,7 @@
       <c r="G176" s="23"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="20"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -2822,7 +2822,7 @@
       <c r="G177" s="23"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
       <c r="B178"/>
       <c r="C178"/>
@@ -2832,7 +2832,7 @@
       <c r="G178" s="23"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
       <c r="B179"/>
       <c r="C179"/>

--- a/TemplateHoras.xlsx
+++ b/TemplateHoras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.ponte\Documents\ProjetoGestaoHoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A9F0B7-48D6-47D8-BB5C-55E0783620C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482A0451-7642-412B-A43C-02828A80BB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D23AFD0-5635-4C53-BE4A-6C961E8978E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D23AFD0-5635-4C53-BE4A-6C961E8978E1}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Projetos</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Horas sem justificar</t>
-  </si>
-  <si>
-    <t>TOTAL:</t>
   </si>
   <si>
     <t>JULHO 2023</t>
@@ -686,7 +683,7 @@
       <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
@@ -723,7 +720,7 @@
       <c r="G1" s="28"/>
       <c r="H1" s="29">
         <f ca="1">+NOW()</f>
-        <v>45299.506137962962</v>
+        <v>45302.386549537034</v>
       </c>
       <c r="I1" s="29"/>
       <c r="J1" s="14"/>
@@ -759,9 +756,7 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:104" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
@@ -772,58 +767,19 @@
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
-      <c r="H3" s="12">
-        <f>+SUM(H7:H41)/($B$2*8)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <f>+SUM(I7:I41)/($B$2*8)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <f>+SUM(J7:J41)/($B$2*8)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <f>+SUM(K6:K41)/($B$2*8)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <f t="shared" ref="L3:R3" si="0">+SUM(L7:L41)/($B$2*8)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="12">
-        <f>+SUM(O7:O41)/($B$2*8)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S3" s="12">
-        <f t="shared" ref="S3" si="1">+SUM(S7:S41)/($B$2*8)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="17">
-        <f>SUM(H3:S3)/COUNT(H3:S3)</f>
-        <v>0</v>
-      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="17"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -912,58 +868,19 @@
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
-      <c r="H4" s="18">
-        <f>+$B$2*8-SUM(H6:H41)</f>
-        <v>176</v>
-      </c>
-      <c r="I4" s="18">
-        <f t="shared" ref="I4:Q4" si="2">+$B$2*8-SUM(I6:I41)</f>
-        <v>176</v>
-      </c>
-      <c r="J4" s="18">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-      <c r="L4" s="18">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-      <c r="M4" s="18">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-      <c r="N4" s="18">
-        <f t="shared" ref="N4" si="3">+$B$2*8-SUM(N6:N41)</f>
-        <v>176</v>
-      </c>
-      <c r="O4" s="18">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-      <c r="P4" s="18">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-      <c r="Q4" s="18">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-      <c r="R4" s="18">
-        <f t="shared" ref="R4" si="4">+$B$2*8-SUM(R6:R41)</f>
-        <v>176</v>
-      </c>
-      <c r="S4" s="18">
-        <f t="shared" ref="S4" si="5">+$B$2*8-SUM(S6:S41)</f>
-        <v>176</v>
-      </c>
-      <c r="T4" s="19">
-        <f>SUM(H4:S4)</f>
-        <v>2112</v>
-      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
